--- a/biology/Histoire de la zoologie et de la botanique/Pietro_Castelli/Pietro_Castelli.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pietro_Castelli/Pietro_Castelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Castelli, né v. 1570 à Rome et mort en 1661 à Messine, parfois connu comme Tobia Aldini, est un médecin et un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Castelli étudie auprès de Andrea Cesalpino (1519-1603) et exerce la médecine à Rome. Il se retire à Messine où il dirige le jardin botanique de la ville. Grand érudit, il est l’auteur de très nombreux ouvrages sur la médecine, la chimie ou la botanique.
 Un certain nombre de ses travaux ont été publiés sous le pseudonyme « Tobia Aldini » (Tobias Aldinus).
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chalcanthinum dodechaporion, sive Duodecim dubitationes in usu olei vitrioli et defensio antiquorum in arsenici atque sandarachae potu (J. Mascardi, Rome, 1619).
 Breve Ricordo dell'ellettione, qualità et virtù dello spirito et oglio acido di vitriolo (J. Mascardi, Rome, 1621).
@@ -569,7 +585,7 @@
 De Abusu circa dierum criticorum enumerationem (J.-F. Bianco, Messine, 1642).
 Epangelia in qua lectiones hoc anno ab ipso habendae in publico Gymnasio super primum librum Aphorismorum Hippocratis enumerantur (L. Osannam, Mantoue, 1646).
 Responsio chimica D. Petri Castelli,... de effervescentia et mutatione colorum in mixtione liquorum chimicorum (P. Breae, Messine, 1654).
-De insectis, ouvrage en deux tomes, est resté inédit[1].</t>
+De insectis, ouvrage en deux tomes, est resté inédit.</t>
         </is>
       </c>
     </row>
